--- a/Business Analysis/data/user_3.xlsx
+++ b/Business Analysis/data/user_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7385BCE9-6609-4D2C-B086-2B8874D40C5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4B36B6-11C1-44F2-A42D-D5D032D6DB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82B3C739-B5A8-4F4D-BDE7-601B15B215EB}"/>
   </bookViews>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Evening (6pm - 12am)</t>
-  </si>
-  <si>
     <t>Relaxed</t>
   </si>
   <si>
@@ -87,10 +84,31 @@
     <t>Believer - Imagine Dragons</t>
   </si>
   <si>
-    <t>Night (12am - 6am)</t>
-  </si>
-  <si>
     <t>Roads - Portishead</t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Believer </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Imagine Dragons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roads </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Portishead</t>
   </si>
 </sst>
 </file>
@@ -457,47 +475,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2060FE2C-A30E-4EBF-B405-ABFA2908FDA9}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43837.647353020831</v>
       </c>
@@ -505,28 +531,34 @@
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="I2" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43837.651099560186</v>
       </c>
@@ -534,28 +566,34 @@
         <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -566,7 +604,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -577,7 +615,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -588,7 +626,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -599,7 +637,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -610,7 +648,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -621,7 +659,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -632,7 +670,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -643,7 +681,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -654,7 +692,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -665,7 +703,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -676,7 +714,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -687,7 +725,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/Business Analysis/data/user_3.xlsx
+++ b/Business Analysis/data/user_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4B36B6-11C1-44F2-A42D-D5D032D6DB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A2ADB8-71A8-4418-BF5C-A8ADF7B2CFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82B3C739-B5A8-4F4D-BDE7-601B15B215EB}"/>
   </bookViews>
@@ -36,18 +36,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Relaxed</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Amusing</t>
-  </si>
-  <si>
-    <t>Outdoor</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
@@ -72,15 +60,6 @@
     <t>song-artist</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Excited</t>
-  </si>
-  <si>
-    <t>Working out</t>
-  </si>
-  <si>
     <t>Believer - Imagine Dragons</t>
   </si>
   <si>
@@ -109,6 +88,27 @@
   </si>
   <si>
     <t xml:space="preserve"> Portishead</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>relaxed</t>
+  </si>
+  <si>
+    <t>working out</t>
+  </si>
+  <si>
+    <t>amusing</t>
+  </si>
+  <si>
+    <t>outdoor</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>male</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,37 +490,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -531,31 +531,31 @@
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I2" s="1">
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -566,31 +566,31 @@
         <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1">
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">

--- a/Business Analysis/data/user_3.xlsx
+++ b/Business Analysis/data/user_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A2ADB8-71A8-4418-BF5C-A8ADF7B2CFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6BA1E4-873F-4D3D-8C8E-6F4A9236F56D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82B3C739-B5A8-4F4D-BDE7-601B15B215EB}"/>
   </bookViews>
@@ -31,12 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>datetime</t>
   </si>
   <si>
     <t>age</t>
@@ -115,9 +112,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,10 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -475,20 +468,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2060FE2C-A30E-4EBF-B405-ABFA2908FDA9}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -511,90 +503,81 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>43837.647353020831</v>
-      </c>
-      <c r="B2" s="1">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>43837.651099560186</v>
-      </c>
-      <c r="B3" s="1">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -602,10 +585,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -613,10 +595,9 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -624,10 +605,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -635,10 +615,9 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -646,10 +625,9 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -657,21 +635,19 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -679,10 +655,9 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -690,10 +665,9 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -701,10 +675,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -712,10 +685,9 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -723,10 +695,9 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -734,10 +705,9 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -745,10 +715,9 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -756,10 +725,9 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -767,10 +735,9 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -778,10 +745,9 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -789,10 +755,9 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -800,10 +765,9 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -811,10 +775,9 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -822,7 +785,6 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
